--- a/medicine/Œil et vue/Lettre_sur_les_aveugles_à_l'usage_de_ceux_qui_voient/Lettre_sur_les_aveugles_à_l'usage_de_ceux_qui_voient.xlsx
+++ b/medicine/Œil et vue/Lettre_sur_les_aveugles_à_l'usage_de_ceux_qui_voient/Lettre_sur_les_aveugles_à_l'usage_de_ceux_qui_voient.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lettre_sur_les_aveugles_%C3%A0_l%27usage_de_ceux_qui_voient</t>
+          <t>Lettre_sur_les_aveugles_à_l'usage_de_ceux_qui_voient</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Lettre sur les aveugles à l’usage de ceux qui voient est un essai de Denis Diderot paru en 1749.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lettre_sur_les_aveugles_%C3%A0_l%27usage_de_ceux_qui_voient</t>
+          <t>Lettre_sur_les_aveugles_à_l'usage_de_ceux_qui_voient</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Un essai sur la perception visuelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans ce texte, Denis Diderot se penche sur la question de la perception visuelle, un sujet renouvelé à l'époque par le succès d'opérations chirurgicales permettant de donner la vue à certains aveugles de naissance. Les spéculations sont nombreuses en ce temps-là sur ce que la vue et l'usage qu'un individu peut en faire doivent à la seule perception, ou bien à l'habitude et l'expérience, par exemple pour se repérer dans l'espace, identifier des formes, percevoir les distances et les volumes, distinguer un tableau réaliste de la réalité.
 Diderot explique qu'un aveugle qui se met soudainement à voir ne comprend pas immédiatement ce qu'il voit, et qu'il mettra du temps à faire le rapport entre son expérience des formes et des distances acquises par le toucher, et les images qu'il perçoit avec son œil.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lettre_sur_les_aveugles_%C3%A0_l%27usage_de_ceux_qui_voient</t>
+          <t>Lettre_sur_les_aveugles_à_l'usage_de_ceux_qui_voient</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>La critique religieuse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le domaine métaphysique, Diderot développe l’idée que la morale dépend de la sensibilité, en montrant qu'un certain nombre d'arguments religieux sont sans portée pour un aveugle. La morale est donc liée à la perception de chacun, elle n’est pas universelle.
 Diderot expose clairement sa vision matérialiste en évoquant son athéisme. Il développe dans un long passage des arguments qu'il attribue à un aveugle mathématicien et géomètre anglais, Nicholas Saunderson, discutant avec un ministre qui tente de lui prouver l'existence de Dieu par le spectacle de la nature (qu'il ne peut voir), puis par la perfection des organes humains. Saunderson déclare alors :
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lettre_sur_les_aveugles_%C3%A0_l%27usage_de_ceux_qui_voient</t>
+          <t>Lettre_sur_les_aveugles_à_l'usage_de_ceux_qui_voient</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Diderot emprisonné</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La publication fit scandale, notamment dans les milieux dévots influents à la Cour, et valut à l’auteur, dont les Pensées philosophiques avaient déjà été mal reçues, d’être emprisonné trois mois. L'essai paraît en juin 1749, et Diderot est arrêté le 24 juillet[1] et emprisonné dans le donjon de Vincennes. Sa fiche signalétique indique : « C’est un jeune homme qui fait le bel esprit et se fait trophée d’impiété, très dangereux ; parlant des saints Mystères avec mépris ». À partir du 21 août, Diderot, très abattu par l'enfermement, est autorisé à circuler dans l'enceinte du château, et à recevoir des visites.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La publication fit scandale, notamment dans les milieux dévots influents à la Cour, et valut à l’auteur, dont les Pensées philosophiques avaient déjà été mal reçues, d’être emprisonné trois mois. L'essai paraît en juin 1749, et Diderot est arrêté le 24 juillet et emprisonné dans le donjon de Vincennes. Sa fiche signalétique indique : « C’est un jeune homme qui fait le bel esprit et se fait trophée d’impiété, très dangereux ; parlant des saints Mystères avec mépris ». À partir du 21 août, Diderot, très abattu par l'enfermement, est autorisé à circuler dans l'enceinte du château, et à recevoir des visites.
 Parmi les visiteurs de Diderot, Jean-Jacques Rousseau, alors son ami, déclare avoir eu à Vincennes des entretiens déterminants pour la suite de son œuvre. Rousseau expose ses projets de contribution au concours de l’Académie de Dijon pour 1750, sur le sujet « Si le rétablissement des sciences et des arts a contribué à épurer les mœurs », une contribution qui deviendra le Discours sur les sciences et les arts. Voici ce que Rousseau raconte à propos de ses discussions avec Diderot :
 « Ce que je me rappelle bien distinctement dans cette occasion, c’est qu’arrivant à Vincennes, j’étais dans une agitation qui tenait du délire. Diderot l’aperçut ; je lui en dis la cause, et je lui lus la prosopopée de Fabricius, écrite en crayon sous un chêne. Il m’exhorta de donner l’essor à mes idées, et de concourir au prix. Je le fis, et dès cet instant je fus perdu. Tout le reste de ma vie et de mes malheurs fut l’effet inévitable de cet instant d’égarement. »
 La détention de Diderot ayant, par la même occasion, interrompu l’entreprise de l’Encyclopédie, dont le projet se voyait gravement compromis, les libraires s’activèrent pour le faire libérer auprès du comte d’Argenson, Berryer et d’Aguesseau. Diderot est libéré le 3 novembre 1749.
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lettre_sur_les_aveugles_%C3%A0_l%27usage_de_ceux_qui_voient</t>
+          <t>Lettre_sur_les_aveugles_à_l'usage_de_ceux_qui_voient</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,9 +630,11 @@
           <t>Les Additions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1782, Diderot a publié dans la Correspondance littéraire[2] des Additions à sa Lettre sur les aveugles. Elles sont restées inédites en volumes jusqu'au XXe siècle.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1782, Diderot a publié dans la Correspondance littéraire des Additions à sa Lettre sur les aveugles. Elles sont restées inédites en volumes jusqu'au XXe siècle.
 </t>
         </is>
       </c>
@@ -625,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lettre_sur_les_aveugles_%C3%A0_l%27usage_de_ceux_qui_voient</t>
+          <t>Lettre_sur_les_aveugles_à_l'usage_de_ceux_qui_voient</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,9 +663,11 @@
           <t>Œuvres inspirées</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2016 le duo d'artistes-performeurs Hantu (Weber+Delsaux) a consacré sa Performance 37- Accommodation[3] à la Lettre sur les aveugles à l'usage de ceux qui voient, reprenant la machine qu'utilise Nicholas Saunderson (1682-1739) pour ses calculs algébriques.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016 le duo d'artistes-performeurs Hantu (Weber+Delsaux) a consacré sa Performance 37- Accommodation à la Lettre sur les aveugles à l'usage de ceux qui voient, reprenant la machine qu'utilise Nicholas Saunderson (1682-1739) pour ses calculs algébriques.
 </t>
         </is>
       </c>
